--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="273">
   <si>
     <t>fecha</t>
   </si>
@@ -705,6 +705,144 @@
   </si>
   <si>
     <t>Incendio en mercado de Las Malvinas</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>https://fernandobelaundeterry.com.pe/img/galeria/e3565820e160444c5a5bc5c61b58148e83c54bb7.jpg</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/GN0pfFIW0AACKeg.png</t>
+  </si>
+  <si>
+    <t>https://www.servindi.org/sites/default/files/editor/imagenes/gein.png</t>
+  </si>
+  <si>
+    <t>https://wayka.pe/wp-content/uploads/2017/01/uchu.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://cdn01.pucp.education/idehpucp/images/2024/03/imagen_2022-07-19_063244840.png</t>
+  </si>
+  <si>
+    <t>https://media.cnn.com/api/v1/images/stellar/prod/cnne-638827-peru-politics-garcia.jpg?c=original</t>
+  </si>
+  <si>
+    <t>https://lineadetiempo.iep.org.pe/public/upload/file_569fc11cddd8d.jpg</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/Evhz268WYAMTBsI.jpg</t>
+  </si>
+  <si>
+    <t>https://scontent.flim28-1.fna.fbcdn.net/v/t1.6435-9/34963073_10156190722935661_1021843668283162624_n.png?stp=dst-png_p526x296&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=gMMEfvlABJIQ7kNvwHw4t2x&amp;_nc_oc=AdmeQiKQt8Trz1mHjtlIqhAm7FW8j-ttjqSUyzsOtaaGuPmbSWbjfVfvZ1dQwUL1LFE&amp;_nc_zt=23&amp;_nc_ht=scontent.flim28-1.fna&amp;_nc_gid=3-njooDcKe5ZrizytwiXGQ&amp;oh=00_AfksBDAzJSmZcf9hSuYfB04WbPDI_wwRxLKzF6doZCb4uA&amp;oe=695BBF63</t>
+  </si>
+  <si>
+    <t>https://cloudfront-us-east-1.images.arcpublishing.com/infobae/MNMIX7O6JNGI3IGBS7ZZE54AAQ.png</t>
+  </si>
+  <si>
+    <t>https://s.france24.com/media/display/b4652ef0-e9fe-11eb-9ff8-005056a97e36/w:1280/p:16x9/294af33ffc0dcaa192c1a3a98139bb16db45c844.jpg</t>
+  </si>
+  <si>
+    <t>https://images.ctfassets.net/owmn3xt273ds/1Ta2J1EbrBcDECGkGcgdQf/4d4d201c65b0ceb4f8a73fc4abce10e1/NS231120_Caballero.jpg?fm=webp</t>
+  </si>
+  <si>
+    <t>https://egecperu.pe/wp-content/uploads/2025/02/El-Conflicto-del-Cenepa-La-ultima-guerra-de-America-Latina-y-su-legado-30-anos-despues.webp</t>
+  </si>
+  <si>
+    <t>https://imagenes.elpais.com/resizer/v2/IFSHOUIXSUU7AG2L7F4Y6JGX5M.jpg?auth=d9163fb9b90528567b5431808e2a54298e3cc1bc2e283c3a8f655e9e420319ca&amp;width=1960&amp;height=1103&amp;smart=true</t>
+  </si>
+  <si>
+    <t>https://lum.cultura.pe/cdi/sites/default/files/articulo/fotos/3_5.jpg</t>
+  </si>
+  <si>
+    <t>https://cloudfront-us-east-1.images.arcpublishing.com/infobae/UL6SX2MWK5DCJFDTA63U74BCCI.jpg</t>
+  </si>
+  <si>
+    <t>https://imagenes.elpais.com/resizer/v2/B2SC7E7AYJXRZ76B3V3KFHLV4Y.jpg?auth=849475f022e746d9bde24b95cf684adcb9a3e97b3ee2d47b5ad1c406688731be&amp;width=414</t>
+  </si>
+  <si>
+    <t>https://ceeep.mil.pe/wp-content/uploads/2023/05/word-image-2.png</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/new-resizer/x6tcVNbY5McXHQE1WcwLnQvwKSY=/arc-anglerfish-arc2-prod-infobae/public/QWXC4RD3EZE2DC2YPG2LWVNJ6Q.jpg</t>
+  </si>
+  <si>
+    <t>https://www.proetica.org.pe/wp-content/uploads/2018/01/LAVA-JATO2.jpg</t>
+  </si>
+  <si>
+    <t>https://larepublica.cronosmedia.glr.pe/original/2022/05/14/627f70f8580a3a2b71793e9f.jpg</t>
+  </si>
+  <si>
+    <t>https://cde.canaln.pe/actualidad-gobierno-alan-garcia-percibido-como-mas-corrupto-ultimos-anos-n293761-696x418-405589.jpg</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/new-resizer/d6B9iKFMlztidbjW1KNsWUXRJSI=/arc-anglerfish-arc2-prod-infobae/public/ESMWDG2KPNAOXOEXPVPA47O3HA.png</t>
+  </si>
+  <si>
+    <t>https://portal.andina.pe/EDPfotografia2/Thumbnail/2009/03/10/000089188W.jpg</t>
+  </si>
+  <si>
+    <t>https://imgs.mongabay.com/wp-content/uploads/sites/25/2016/09/03171652/bagua_conflicto_pueblo-indigena_mongabay-1.jpg</t>
+  </si>
+  <si>
+    <t>https://lineadetiempo.iep.org.pe/public/upload/file_569955f6af2a9.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/30/Ollanta_Humala_asume_Presidencia_del_Per%C3%BA.jpg</t>
+  </si>
+  <si>
+    <t>https://lineadetiempo.iep.org.pe/public/upload/file_5699ae8de29a7.jpg</t>
+  </si>
+  <si>
+    <t>https://scontent.flim38-1.fna.fbcdn.net/v/t1.6435-9/167613447_5263535013687951_4723074474013864240_n.jpg?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=127cfc&amp;_nc_ohc=o8tz-1k1JycQ7kNvwHkUk4w&amp;_nc_oc=Adk6icTyWnS7dsPJHdEAFMSHEiptTP0NaeuVmLAnCZodlQs_71Izs5NWgLLZiLxiLxk&amp;_nc_zt=23&amp;_nc_ht=scontent.flim38-1.fna&amp;_nc_gid=LxrPtW7f46WvpCpLpaCVtg&amp;oh=00_AfnnFBboSYUyQG-ljdYywE2ox1Gp_D8RD1EmKfQD2wSeBg&amp;oe=695C0000</t>
+  </si>
+  <si>
+    <t>https://cdn01.pucp.education/idehpucp/images/2024/03/imagen_2022-09-26_232350211-1024x683.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/43/MapaElectoralRegionalPeru2014.png</t>
+  </si>
+  <si>
+    <t>https://elperuano.pe/suplementosflipping/lonuestro/251/web/img/foto06.jpg</t>
+  </si>
+  <si>
+    <t>https://cloudfront-eu-central-1.images.arcpublishing.com/prisaradio/GXMOG2MOFNLXRLNZUDU24WINMY.jpg</t>
+  </si>
+  <si>
+    <t>https://museos.cultura.pe/sites/default/files/noticias/imagenes/2021-12/Museo%20Tu%CC%81cume.png</t>
+  </si>
+  <si>
+    <t>https://ojo-publico.com/sites/default/files/32701602463_d00f89db08_h.jpg</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/resizer/v2/V7TPPRJTPBENLBRP52G7DVCY2Y.png?auth=ed6944ef06a5f942357505fc80ca93aded1e766dda03d0a2dc9a7fd8dc218e06&amp;smart=true&amp;width=1200&amp;height=1200&amp;quality=85</t>
+  </si>
+  <si>
+    <t>https://img.lpderecho.pe/wp-content/uploads/2021/07/Licencia-sindical-Pedro-Castillo-LP.jpg</t>
+  </si>
+  <si>
+    <t>https://ucsp.edu.pe/wp-content/uploads/2023/08/b1161.jpeg</t>
+  </si>
+  <si>
+    <t>https://scontent.flim38-1.fna.fbcdn.net/v/t39.30808-6/564716127_1212449430920169_8072068678252789608_n.jpg?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=833d8c&amp;_nc_ohc=EdDd3VlrdeYQ7kNvwGJISI9&amp;_nc_oc=AdnUiTEhUP3yz_ZfLs8DBk6_NP_bN_aH4yF7vuTeKrLfx3VJAwH5gtETNr0QJrWLHl8&amp;_nc_zt=23&amp;_nc_ht=scontent.flim38-1.fna&amp;_nc_gid=S34O2x7lt3kRWQgKaxrrTw&amp;oh=00_Afkr5Sbi5upttlaBB4bMTkFG2m5lSbKJj3waESqPSETzQA&amp;oe=693A4AC9</t>
+  </si>
+  <si>
+    <t>https://peru.info/archivos/publicacion/26-imagen-2035341682017.jpg</t>
+  </si>
+  <si>
+    <t>https://cooperaccion.org.pe/wp-content/uploads/2019/11/AYACUCHO-PARO-MINER%C3%8DA-La-mula.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Fdp2kEMhG7g/maxresdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/new-resizer/YxvTlJzVnFWweLyB8sUyhdL2n5c=/arc-anglerfish-arc2-prod-infobae/public/DCUTTZYEXXKH3OKVMGZKOBTNTU.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/82/Protestas_en_Lima_por_golpe_de_estado_parlamentario_27.jpg</t>
+  </si>
+  <si>
+    <t>https://www.unicef.org/peru/sites/unicef.org.peru/files/styles/press_release_feature/public/Vacunacion%20nino%20Peru%20-%20UNICEF%20UN0724497.jpg.webp?itok=abBnc3U0</t>
   </si>
 </sst>
 </file>
@@ -712,7 +850,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -746,7 +884,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,28 +1165,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="9" width="8.21875" customWidth="1"/>
+    <col min="10" max="10" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -1085,8 +1224,11 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1123,8 +1265,11 @@
       <c r="L2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1161,8 +1306,11 @@
       <c r="L3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1199,8 +1347,11 @@
       <c r="L4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1237,8 +1388,11 @@
       <c r="L5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1275,8 +1429,11 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1313,8 +1470,11 @@
       <c r="L7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1351,8 +1511,11 @@
       <c r="L8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1389,8 +1552,11 @@
       <c r="L9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1427,8 +1593,11 @@
       <c r="L10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1465,8 +1634,11 @@
       <c r="L11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1503,8 +1675,11 @@
       <c r="L12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1541,8 +1716,11 @@
       <c r="L13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1579,8 +1757,11 @@
       <c r="L14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1617,8 +1798,11 @@
       <c r="L15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1655,8 +1839,11 @@
       <c r="L16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1693,8 +1880,11 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1731,8 +1921,11 @@
       <c r="L18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1769,8 +1962,11 @@
       <c r="L19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1807,8 +2003,11 @@
       <c r="L20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1845,8 +2044,11 @@
       <c r="L21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1883,8 +2085,11 @@
       <c r="L22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1921,8 +2126,11 @@
       <c r="L23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1959,8 +2167,11 @@
       <c r="L24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1997,8 +2208,11 @@
       <c r="L25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2035,8 +2249,11 @@
       <c r="L26" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2073,8 +2290,11 @@
       <c r="L27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2111,8 +2331,11 @@
       <c r="L28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2149,8 +2372,11 @@
       <c r="L29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2187,8 +2413,11 @@
       <c r="L30" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2225,8 +2454,11 @@
       <c r="L31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2263,8 +2495,11 @@
       <c r="L32" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2301,8 +2536,11 @@
       <c r="L33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2339,8 +2577,11 @@
       <c r="L34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2377,8 +2618,11 @@
       <c r="L35" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2415,8 +2659,11 @@
       <c r="L36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2453,8 +2700,11 @@
       <c r="L37" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2491,8 +2741,11 @@
       <c r="L38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2529,8 +2782,11 @@
       <c r="L39" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2567,8 +2823,11 @@
       <c r="L40" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2605,8 +2864,11 @@
       <c r="L41" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2643,8 +2905,11 @@
       <c r="L42" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2681,8 +2946,11 @@
       <c r="L43" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2719,8 +2987,11 @@
       <c r="L44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2757,8 +3028,11 @@
       <c r="L45" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2794,6 +3068,9 @@
       </c>
       <c r="L46" t="s">
         <v>29</v>
+      </c>
+      <c r="M46" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,7 +1178,7 @@
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="9" width="8.21875" customWidth="1"/>
     <col min="10" max="10" width="31.21875" bestFit="1" customWidth="1"/>
@@ -1251,10 +1251,10 @@
         <v>13</v>
       </c>
       <c r="H2" s="2">
-        <v>-12.0579473662712</v>
+        <v>-12.045005977682299</v>
       </c>
       <c r="I2" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.029964136886207</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -1292,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="H3" s="2">
-        <v>-13.1852225571488</v>
+        <v>-13.160994057531299</v>
       </c>
       <c r="I3" s="2">
-        <v>-74.229491041586897</v>
+        <v>-74.2325736178272</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
@@ -1333,10 +1333,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="2">
-        <v>-12.0579473662712</v>
+        <v>-12.0578260465577</v>
       </c>
       <c r="I4" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.0406736466811</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
@@ -1374,10 +1374,10 @@
         <v>20</v>
       </c>
       <c r="H5" s="2">
-        <v>-13.1852225571488</v>
+        <v>-12.8268585509094</v>
       </c>
       <c r="I5" s="2">
-        <v>-74.229491041586897</v>
+        <v>-74.111507049831403</v>
       </c>
       <c r="J5" t="s">
         <v>32</v>
@@ -1456,10 +1456,11 @@
         <v>13</v>
       </c>
       <c r="H7" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0450059776823</f>
+        <v>-12.045005977682299</v>
       </c>
       <c r="I7" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.029964136886207</v>
       </c>
       <c r="J7" t="s">
         <v>40</v>
@@ -1497,10 +1498,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="2">
-        <v>-12.0579473662712</v>
+        <v>-12.096712767937699</v>
       </c>
       <c r="I8" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.021037741032004</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
@@ -1538,10 +1539,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="2">
-        <v>-12.0579473662712</v>
+        <v>-12.0463216510866</v>
       </c>
       <c r="I9" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.028377719694802</v>
       </c>
       <c r="J9" t="s">
         <v>49</v>
@@ -1579,10 +1580,11 @@
         <v>13</v>
       </c>
       <c r="H10" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0450059776823</f>
+        <v>-12.045005977682299</v>
       </c>
       <c r="I10" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.029964136886207</v>
       </c>
       <c r="J10" t="s">
         <v>55</v>
@@ -1620,10 +1622,11 @@
         <v>13</v>
       </c>
       <c r="H11" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0479451976752</f>
+        <v>-12.047945197675199</v>
       </c>
       <c r="I11" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.025359597612507</v>
       </c>
       <c r="J11" t="s">
         <v>55</v>
@@ -1661,10 +1664,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="2">
-        <v>-12.0579473662712</v>
+        <v>-12.1186696082605</v>
       </c>
       <c r="I12" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.000673939473003</v>
       </c>
       <c r="J12" t="s">
         <v>63</v>
@@ -1702,10 +1705,11 @@
         <v>13</v>
       </c>
       <c r="H13" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0479451976752</f>
+        <v>-12.047945197675199</v>
       </c>
       <c r="I13" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.025359597612507</v>
       </c>
       <c r="J13" t="s">
         <v>67</v>
@@ -1784,10 +1788,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="2">
-        <v>-12.0579473662712</v>
+        <v>-12.299061880493101</v>
       </c>
       <c r="I15" s="2">
-        <v>-77.068053272959006</v>
+        <v>-76.854659896952199</v>
       </c>
       <c r="J15" t="s">
         <v>79</v>
@@ -1825,10 +1829,11 @@
         <v>13</v>
       </c>
       <c r="H16" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0479451976752</f>
+        <v>-12.047945197675199</v>
       </c>
       <c r="I16" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.025359597612507</v>
       </c>
       <c r="J16" t="s">
         <v>55</v>
@@ -1907,10 +1912,11 @@
         <v>13</v>
       </c>
       <c r="H18" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0450059776823</f>
+        <v>-12.045005977682299</v>
       </c>
       <c r="I18" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.029964136886207</v>
       </c>
       <c r="J18" t="s">
         <v>92</v>
@@ -1948,10 +1954,11 @@
         <v>13</v>
       </c>
       <c r="H19" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0479451976752</f>
+        <v>-12.047945197675199</v>
       </c>
       <c r="I19" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.025359597612507</v>
       </c>
       <c r="J19" t="s">
         <v>96</v>
@@ -2071,10 +2078,11 @@
         <v>13</v>
       </c>
       <c r="H22" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0517187883729</f>
+        <v>-12.0517187883729</v>
       </c>
       <c r="I22" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.034671572863004</v>
       </c>
       <c r="J22" t="s">
         <v>110</v>
@@ -2112,10 +2120,11 @@
         <v>13</v>
       </c>
       <c r="H23" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0450059776823</f>
+        <v>-12.045005977682299</v>
       </c>
       <c r="I23" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.029964136886207</v>
       </c>
       <c r="J23" t="s">
         <v>40</v>
@@ -2317,10 +2326,11 @@
         <v>13</v>
       </c>
       <c r="H28" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0450059776823</f>
+        <v>-12.045005977682299</v>
       </c>
       <c r="I28" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.029964136886207</v>
       </c>
       <c r="J28" t="s">
         <v>137</v>
@@ -2399,10 +2409,11 @@
         <v>13</v>
       </c>
       <c r="H30" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0479451976752</f>
+        <v>-12.047945197675199</v>
       </c>
       <c r="I30" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.025359597612507</v>
       </c>
       <c r="J30" t="s">
         <v>147</v>
@@ -2481,10 +2492,11 @@
         <v>13</v>
       </c>
       <c r="H32" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0479451976752</f>
+        <v>-12.047945197675199</v>
       </c>
       <c r="I32" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.025359597612507</v>
       </c>
       <c r="J32" t="s">
         <v>152</v>
@@ -2563,10 +2575,11 @@
         <v>13</v>
       </c>
       <c r="H34" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0450059776823</f>
+        <v>-12.045005977682299</v>
       </c>
       <c r="I34" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.029964136886207</v>
       </c>
       <c r="J34" t="s">
         <v>166</v>
@@ -3014,10 +3027,11 @@
         <v>13</v>
       </c>
       <c r="H45" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0517187883729</f>
+        <v>-12.0517187883729</v>
       </c>
       <c r="I45" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.034671572863004</v>
       </c>
       <c r="J45" t="s">
         <v>218</v>
@@ -3055,10 +3069,11 @@
         <v>13</v>
       </c>
       <c r="H46" s="2">
-        <v>-12.0579473662712</v>
+        <f>-12.0517187883729</f>
+        <v>-12.0517187883729</v>
       </c>
       <c r="I46" s="2">
-        <v>-77.068053272959006</v>
+        <v>-77.034671572863004</v>
       </c>
       <c r="J46" t="s">
         <v>209</v>
